--- a/INTLINE/data/134/DEUSTATIS/Unemployment as a percentage of the civilian labour force.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Unemployment as a percentage of the civilian labour force.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="62">
   <si>
     <t>Unemployment as a percentage of the civilian labour force:
 Germany / Former territory of the Federal Republic / New
@@ -201,7 +201,7 @@
     <t>(Code: 13211).</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:11:27</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:50:06</t>
   </si>
 </sst>
 </file>
@@ -8283,11 +8283,11 @@
       <c r="HB8" t="n" s="10">
         <v>5.1</v>
       </c>
-      <c r="HC8" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD8" t="s" s="10">
-        <v>39</v>
+      <c r="HC8" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="HD8" t="n" s="10">
+        <v>4.9</v>
       </c>
       <c r="HE8" t="s" s="10">
         <v>39</v>
@@ -8944,11 +8944,11 @@
       <c r="HB10" t="n" s="10">
         <v>5.4</v>
       </c>
-      <c r="HC10" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD10" t="s" s="10">
-        <v>39</v>
+      <c r="HC10" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="HD10" t="n" s="10">
+        <v>5.2</v>
       </c>
       <c r="HE10" t="s" s="10">
         <v>39</v>
@@ -9600,11 +9600,11 @@
       <c r="HB11" t="n" s="10">
         <v>4.8</v>
       </c>
-      <c r="HC11" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD11" t="s" s="10">
-        <v>39</v>
+      <c r="HC11" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="HD11" t="n" s="10">
+        <v>4.7</v>
       </c>
       <c r="HE11" t="s" s="10">
         <v>39</v>
@@ -10256,11 +10256,11 @@
       <c r="HB12" t="n" s="10">
         <v>3.0</v>
       </c>
-      <c r="HC12" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD12" t="s" s="10">
-        <v>39</v>
+      <c r="HC12" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="HD12" t="n" s="10">
+        <v>2.9</v>
       </c>
       <c r="HE12" t="s" s="10">
         <v>39</v>
@@ -10912,11 +10912,11 @@
       <c r="HB13" t="n" s="10">
         <v>4.1</v>
       </c>
-      <c r="HC13" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD13" t="s" s="10">
-        <v>39</v>
+      <c r="HC13" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="HD13" t="n" s="10">
+        <v>3.8</v>
       </c>
       <c r="HE13" t="s" s="10">
         <v>39</v>
@@ -11568,11 +11568,11 @@
       <c r="HB14" t="n" s="10">
         <v>5.8</v>
       </c>
-      <c r="HC14" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD14" t="s" s="10">
-        <v>39</v>
+      <c r="HC14" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="HD14" t="n" s="10">
+        <v>5.4</v>
       </c>
       <c r="HE14" t="s" s="10">
         <v>39</v>
@@ -12225,10 +12225,10 @@
         <v>44</v>
       </c>
       <c r="HC15" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HD15" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HE15" t="s" s="10">
         <v>39</v>
@@ -12881,10 +12881,10 @@
         <v>44</v>
       </c>
       <c r="HC16" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HD16" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HE16" t="s" s="10">
         <v>39</v>
@@ -13536,11 +13536,11 @@
       <c r="HB17" t="n" s="10">
         <v>12.2</v>
       </c>
-      <c r="HC17" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD17" t="s" s="10">
-        <v>39</v>
+      <c r="HC17" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="HD17" t="n" s="10">
+        <v>11.5</v>
       </c>
       <c r="HE17" t="s" s="10">
         <v>39</v>
@@ -14200,11 +14200,11 @@
       <c r="HB19" t="n" s="10">
         <v>4.8</v>
       </c>
-      <c r="HC19" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD19" t="s" s="10">
-        <v>39</v>
+      <c r="HC19" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="HD19" t="n" s="10">
+        <v>4.6</v>
       </c>
       <c r="HE19" t="s" s="10">
         <v>39</v>
@@ -14861,11 +14861,11 @@
       <c r="HB21" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="HC21" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD21" t="s" s="10">
-        <v>39</v>
+      <c r="HC21" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="HD21" t="n" s="10">
+        <v>4.8</v>
       </c>
       <c r="HE21" t="s" s="10">
         <v>39</v>
@@ -15517,11 +15517,11 @@
       <c r="HB22" t="n" s="10">
         <v>4.6</v>
       </c>
-      <c r="HC22" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD22" t="s" s="10">
-        <v>39</v>
+      <c r="HC22" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="HD22" t="n" s="10">
+        <v>4.4</v>
       </c>
       <c r="HE22" t="s" s="10">
         <v>39</v>
@@ -16173,11 +16173,11 @@
       <c r="HB23" t="n" s="10">
         <v>2.6</v>
       </c>
-      <c r="HC23" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD23" t="s" s="10">
-        <v>39</v>
+      <c r="HC23" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="HD23" t="n" s="10">
+        <v>2.4</v>
       </c>
       <c r="HE23" t="s" s="10">
         <v>39</v>
@@ -16829,11 +16829,11 @@
       <c r="HB24" t="n" s="10">
         <v>3.6</v>
       </c>
-      <c r="HC24" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD24" t="s" s="10">
-        <v>39</v>
+      <c r="HC24" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="HD24" t="n" s="10">
+        <v>3.4</v>
       </c>
       <c r="HE24" t="s" s="10">
         <v>39</v>
@@ -17485,11 +17485,11 @@
       <c r="HB25" t="n" s="10">
         <v>5.5</v>
       </c>
-      <c r="HC25" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD25" t="s" s="10">
-        <v>39</v>
+      <c r="HC25" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="HD25" t="n" s="10">
+        <v>5.1</v>
       </c>
       <c r="HE25" t="s" s="10">
         <v>39</v>
@@ -18142,10 +18142,10 @@
         <v>44</v>
       </c>
       <c r="HC26" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HD26" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HE26" t="s" s="10">
         <v>39</v>
@@ -18798,10 +18798,10 @@
         <v>44</v>
       </c>
       <c r="HC27" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HD27" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HE27" t="s" s="10">
         <v>39</v>
@@ -19453,11 +19453,11 @@
       <c r="HB28" t="n" s="10">
         <v>11.6</v>
       </c>
-      <c r="HC28" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD28" t="s" s="10">
-        <v>39</v>
+      <c r="HC28" t="n" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="HD28" t="n" s="10">
+        <v>11.0</v>
       </c>
       <c r="HE28" t="s" s="10">
         <v>39</v>
@@ -20117,11 +20117,11 @@
       <c r="HB30" t="n" s="10">
         <v>6.6</v>
       </c>
-      <c r="HC30" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD30" t="s" s="10">
-        <v>39</v>
+      <c r="HC30" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="HD30" t="n" s="10">
+        <v>6.3</v>
       </c>
       <c r="HE30" t="s" s="10">
         <v>39</v>
@@ -20778,11 +20778,11 @@
       <c r="HB32" t="n" s="10">
         <v>7.1</v>
       </c>
-      <c r="HC32" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD32" t="s" s="10">
-        <v>39</v>
+      <c r="HC32" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="HD32" t="n" s="10">
+        <v>6.8</v>
       </c>
       <c r="HE32" t="s" s="10">
         <v>39</v>
@@ -21434,11 +21434,11 @@
       <c r="HB33" t="n" s="10">
         <v>6.0</v>
       </c>
-      <c r="HC33" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD33" t="s" s="10">
-        <v>39</v>
+      <c r="HC33" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="HD33" t="n" s="10">
+        <v>5.8</v>
       </c>
       <c r="HE33" t="s" s="10">
         <v>39</v>
@@ -22090,11 +22090,11 @@
       <c r="HB34" t="n" s="10">
         <v>5.6</v>
       </c>
-      <c r="HC34" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD34" t="s" s="10">
-        <v>39</v>
+      <c r="HC34" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="HD34" t="n" s="10">
+        <v>5.3</v>
       </c>
       <c r="HE34" t="s" s="10">
         <v>39</v>
@@ -22746,11 +22746,11 @@
       <c r="HB35" t="n" s="10">
         <v>6.7</v>
       </c>
-      <c r="HC35" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD35" t="s" s="10">
-        <v>39</v>
+      <c r="HC35" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="HD35" t="n" s="10">
+        <v>6.1</v>
       </c>
       <c r="HE35" t="s" s="10">
         <v>39</v>
@@ -23402,11 +23402,11 @@
       <c r="HB36" t="n" s="10">
         <v>7.2</v>
       </c>
-      <c r="HC36" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD36" t="s" s="10">
-        <v>39</v>
+      <c r="HC36" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="HD36" t="n" s="10">
+        <v>6.7</v>
       </c>
       <c r="HE36" t="s" s="10">
         <v>39</v>
@@ -24059,10 +24059,10 @@
         <v>44</v>
       </c>
       <c r="HC37" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HD37" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HE37" t="s" s="10">
         <v>39</v>
@@ -24715,10 +24715,10 @@
         <v>44</v>
       </c>
       <c r="HC38" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HD38" t="s" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="HE38" t="s" s="10">
         <v>39</v>
@@ -25370,11 +25370,11 @@
       <c r="HB39" t="n" s="10">
         <v>16.3</v>
       </c>
-      <c r="HC39" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="HD39" t="s" s="10">
-        <v>39</v>
+      <c r="HC39" t="n" s="10">
+        <v>16.1</v>
+      </c>
+      <c r="HD39" t="n" s="10">
+        <v>15.1</v>
       </c>
       <c r="HE39" t="s" s="10">
         <v>39</v>
@@ -25503,7 +25503,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:11:35&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:50:13&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Unemployment as a percentage of the civilian labour force.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Unemployment as a percentage of the civilian labour force.xlsx
@@ -201,7 +201,7 @@
     <t>(Code: 13211).</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:50:06</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 07:01:09</t>
   </si>
 </sst>
 </file>
@@ -25503,7 +25503,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:50:13&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 07:01:16&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>